--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/PENNSYLVANIA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/PENNSYLVANIA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D986"/>
+  <dimension ref="A1:D980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6">
@@ -452,12 +452,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>PLAYAS DE ROSARITO</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C9">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TECATE</t>
+          <t>Tecate</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12">
@@ -535,12 +535,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COMONDÚ</t>
+          <t>Comondú</t>
         </is>
       </c>
       <c r="C13">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>MULEGÉ</t>
+          <t>Mulegé</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -579,12 +579,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C19">
@@ -636,12 +636,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>ALTAMIRANO</t>
+          <t>Altamirano</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>AMATENANGO DEL VALLE</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMATÁN</t>
+          <t>Amatán</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>BEJUCAL DE OCAMPO</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>BENEMÉRITO DE LAS AMÉRICAS</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOCHIL</t>
+          <t>Bochil</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHENALHÓ</t>
+          <t>Chenalhó</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>EL BOSQUE</t>
+          <t>El Bosque</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>HUIXTÁN</t>
+          <t>Huixtán</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>IXTAPANGAJOYA</t>
+          <t>Ixtapangajoya</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>LA GRANDEZA</t>
+          <t>La Grandeza</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>La Independencia</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>MARAVILLA TENEJAPA</t>
+          <t>Maravilla Tenejapa</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C57">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C59">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>PICHUCALCO</t>
+          <t>Pichucalco</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C64">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C65">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>SAN JUAN CANCUC</t>
+          <t>San Juan Cancuc</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C71">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C72">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>TENEJAPA</t>
+          <t>Tenejapa</t>
         </is>
       </c>
       <c r="C73">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C74">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C75">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C76">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C77">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>TZIMOL</t>
+          <t>Tzimol</t>
         </is>
       </c>
       <c r="C78">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>Unión Juárez</t>
         </is>
       </c>
       <c r="C79">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C80">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C81">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C82">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C84">
@@ -1486,12 +1486,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C85">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C86">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C87">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C88">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>GUADALUPE Y CALVO</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C89">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C90">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C91">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C92">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>OJINAGA</t>
+          <t>Ojinaga</t>
         </is>
       </c>
       <c r="C93">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C94">
@@ -1621,12 +1621,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C95">
@@ -1639,7 +1639,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C96">
@@ -1652,7 +1652,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C97">
@@ -1665,7 +1665,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C98">
@@ -1678,7 +1678,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C99">
@@ -1691,7 +1691,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C100">
@@ -1704,7 +1704,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C101">
@@ -1717,7 +1717,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C102">
@@ -1730,7 +1730,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C103">
@@ -1743,7 +1743,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C104">
@@ -1756,7 +1756,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>Milpa Alta</t>
         </is>
       </c>
       <c r="C105">
@@ -1769,7 +1769,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C106">
@@ -1782,7 +1782,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C107">
@@ -1795,7 +1795,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C108">
@@ -1808,7 +1808,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C109">
@@ -1821,7 +1821,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C110">
@@ -1834,7 +1834,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C111">
@@ -1847,7 +1847,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C112">
@@ -1860,12 +1860,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C113">
@@ -1878,7 +1878,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>CASTAÑOS</t>
+          <t>Castaños</t>
         </is>
       </c>
       <c r="C114">
@@ -1891,7 +1891,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C115">
@@ -1904,7 +1904,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C116">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C117">
@@ -1930,7 +1930,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C118">
@@ -1943,7 +1943,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C119">
@@ -1956,7 +1956,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C120">
@@ -1969,7 +1969,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C121">
@@ -1982,7 +1982,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C122">
@@ -1995,12 +1995,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C123">
@@ -2013,7 +2013,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C124">
@@ -2026,12 +2026,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C125">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C126">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C127">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>SAN BERNARDO</t>
+          <t>San Bernardo</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C129">
@@ -2096,12 +2096,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C130">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>ACOLMAN</t>
+          <t>Acolman</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>ALMOLOYA DEL RÍO</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>AMANALCO</t>
+          <t>Amanalco</t>
         </is>
       </c>
       <c r="C135">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C136">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C137">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>ATIZAPÁN</t>
+          <t>Atizapán</t>
         </is>
       </c>
       <c r="C138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C139">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C140">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>ATLAUTLA</t>
+          <t>Atlautla</t>
         </is>
       </c>
       <c r="C141">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>CALIMAYA</t>
+          <t>Calimaya</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>CAPULHUAC</t>
+          <t>Capulhuac</t>
         </is>
       </c>
       <c r="C143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C144">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>CHAPA DE MOTA</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C145">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>CHICOLOAPAN</t>
+          <t>Chicoloapan</t>
         </is>
       </c>
       <c r="C146">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C147">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>COACALCO DE BERRIOZÁBAL</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C149">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>COYOTEPEC</t>
+          <t>Coyotepec</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN IZCALLI</t>
+          <t>Cuautitlán Izcalli</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>DONATO GUERRA</t>
+          <t>Donato Guerra</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECATZINGO</t>
+          <t>Ecatzingo</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>HUEYPOXTLA</t>
+          <t>Hueypoxtla</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>HUIXQUILUCAN</t>
+          <t>Huixquilucan</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>IXTAPAN DEL ORO</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>JOCOTITLÁN</t>
+          <t>Jocotitlán</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>JOQUICINGO</t>
+          <t>Joquicingo</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>JUCHITEPEC</t>
+          <t>Juchitepec</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>MALINALCO</t>
+          <t>Malinalco</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>OCOYOACAC</t>
+          <t>Ocoyoacac</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>OCUILAN</t>
+          <t>Ocuilan</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>OTUMBA</t>
+          <t>Otumba</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>OTZOLOTEPEC</t>
+          <t>Otzolotepec</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>SAN SIMÓN DE GUERRERO</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS</t>
+          <t>Santo Tomás</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>TENANGO DEL AIRE</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>TEOLOYUCAN</t>
+          <t>Teoloyucan</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>TEOTIHUACÁN</t>
+          <t>Teotihuacán</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>TEQUIXQUIAC</t>
+          <t>Tequixquiac</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>TEXCALTITLÁN</t>
+          <t>Texcaltitlán</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>TIANGUISTENCO</t>
+          <t>Tianguistenco</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>TLALMANALCO</t>
+          <t>Tlalmanalco</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C196">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>TULTEPEC</t>
+          <t>Tultepec</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>VALLE DE BRAVO</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>VILLA DE ALLENDE</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>VILLA DEL CARBÓN</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>XALATLACO</t>
+          <t>Xalatlaco</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>XONACATLÁN</t>
+          <t>Xonacatlán</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>Zinacantepec</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>ZUMPAHUACÁN</t>
+          <t>Zumpahuacán</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>ZUMPANGO</t>
+          <t>Zumpango</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,12 +3180,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C213">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C214">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C218">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>CORONEO</t>
+          <t>Coroneo</t>
         </is>
       </c>
       <c r="C219">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>HUANÍMARO</t>
+          <t>Huanímaro</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C230">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C233">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>SANTIAGO MARAVATÍO</t>
+          <t>Santiago Maravatío</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C240">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,12 +3614,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>ALCOZAUCA DE GUERRERO</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C249">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
+          <t>Alpoyeca</t>
         </is>
       </c>
       <c r="C250">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>APAXTLA</t>
+          <t>Apaxtla</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>ATENANGO DEL RÍO</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>ATLAMAJALCINGO DEL MONTE</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>BUENAVISTA DE CUÉLLAR</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>COAHUAYUTLA DE JOSÉ MARÍA IZAZAGA</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>COPALILLO</t>
+          <t>Copalillo</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>CUETZALA DEL PROGRESO</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
+          <t>General Canuto A. Neri</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>IXCATEOPAN DE CUAUHTÉMOC</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>PEDRO ASCENCIO ALQUISIRAS</t>
+          <t>Pedro Ascencio Alquisiras</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>TLACOAPA</t>
+          <t>Tlacoapa</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>XOCHIHUEHUETLÁN</t>
+          <t>Xochihuehuetlán</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>ZITLALA</t>
+          <t>Zitlala</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,12 +4451,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>AGUA BLANCA DE ITURBIDE</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C311">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C312">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C313">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C314">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>CHAPULHUACÁN</t>
+          <t>Chapulhuacán</t>
         </is>
       </c>
       <c r="C315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>CHILCUAUTLA</t>
+          <t>Chilcuautla</t>
         </is>
       </c>
       <c r="C316">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C317">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>ELOXOCHITLÁN</t>
+          <t>Eloxochitlán</t>
         </is>
       </c>
       <c r="C318">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C320">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>HUAUTLA</t>
+          <t>Huautla</t>
         </is>
       </c>
       <c r="C321">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>Huazalingo</t>
         </is>
       </c>
       <c r="C322">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C323">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
+          <t>Huichapan</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>JUÁREZ HIDALGO</t>
+          <t>Juárez Hidalgo</t>
         </is>
       </c>
       <c r="C326">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C327">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>LOLOTLA</t>
+          <t>Lolotla</t>
         </is>
       </c>
       <c r="C328">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C329">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C330">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>MINERAL DE LA REFORMA</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C331">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>MINERAL DEL MONTE</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>MOLANGO DE ESCAMILLA</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN METZQUITITLÁN</t>
+          <t>San Agustín Metzquititlán</t>
         </is>
       </c>
       <c r="C338">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN TLAXIACA</t>
+          <t>San Agustín Tlaxiaca</t>
         </is>
       </c>
       <c r="C339">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>SAN SALVADOR</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>SANTIAGO DE ANAYA</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>TECOZAUTLA</t>
+          <t>Tecozautla</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>TIANGUISTENGO</t>
+          <t>Tianguistengo</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>TLAHUELILPAN</t>
+          <t>Tlahuelilpan</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>TLAHUILTEPA</t>
+          <t>Tlahuiltepa</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>TLANCHINOL</t>
+          <t>Tlanchinol</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>XOCHICOATLÁN</t>
+          <t>Xochicoatlán</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN DE JUÁREZ</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,12 +5041,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>AHUALULCO DE MERCADO</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C355">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C356">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>CUQUÍO</t>
+          <t>Cuquío</t>
         </is>
       </c>
       <c r="C357">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C358">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C359">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>HUEJUQUILLA EL ALTO</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C360">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C362">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>JOCOTEPEC</t>
+          <t>Jocotepec</t>
         </is>
       </c>
       <c r="C363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C364">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C365">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C366">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>MAZAMITLA</t>
+          <t>Mazamitla</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>MIXTLÁN</t>
+          <t>Mixtlán</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C369">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE BOLAÑOS</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C372">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>TECALITLÁN</t>
+          <t>Tecalitlán</t>
         </is>
       </c>
       <c r="C374">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>TECOLOTLÁN</t>
+          <t>Tecolotlán</t>
         </is>
       </c>
       <c r="C375">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C376">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C377">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>ZAPOTILTIC</t>
+          <t>Zapotiltic</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN DE VADILLO</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C380">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C381">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,12 +5410,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>AGUILILLA</t>
+          <t>Aguililla</t>
         </is>
       </c>
       <c r="C383">
@@ -5428,7 +5428,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C384">
@@ -5441,7 +5441,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C385">
@@ -5454,7 +5454,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C386">
@@ -5467,7 +5467,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C387">
@@ -5480,7 +5480,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C388">
@@ -5493,7 +5493,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>CHARAPAN</t>
+          <t>Charapan</t>
         </is>
       </c>
       <c r="C389">
@@ -5506,7 +5506,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>CHAVINDA</t>
+          <t>Chavinda</t>
         </is>
       </c>
       <c r="C390">
@@ -5519,7 +5519,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>CHERÁN</t>
+          <t>Cherán</t>
         </is>
       </c>
       <c r="C391">
@@ -5532,7 +5532,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>CHILCHOTA</t>
+          <t>Chilchota</t>
         </is>
       </c>
       <c r="C392">
@@ -5545,7 +5545,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>CHURUMUCO</t>
+          <t>Churumuco</t>
         </is>
       </c>
       <c r="C393">
@@ -5558,7 +5558,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C394">
@@ -5571,7 +5571,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>COENEO</t>
+          <t>Coeneo</t>
         </is>
       </c>
       <c r="C395">
@@ -5584,7 +5584,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C396">
@@ -5597,7 +5597,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>COTIJA</t>
+          <t>Cotija</t>
         </is>
       </c>
       <c r="C397">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>CUITZEO</t>
+          <t>Cuitzeo</t>
         </is>
       </c>
       <c r="C398">
@@ -5623,7 +5623,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C399">
@@ -5636,7 +5636,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>HUANDACAREO</t>
+          <t>Huandacareo</t>
         </is>
       </c>
       <c r="C400">
@@ -5649,7 +5649,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C401">
@@ -5662,7 +5662,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>JACONA</t>
+          <t>Jacona</t>
         </is>
       </c>
       <c r="C402">
@@ -5675,7 +5675,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C403">
@@ -5688,7 +5688,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C404">
@@ -5701,7 +5701,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C405">
@@ -5714,7 +5714,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C406">
@@ -5727,7 +5727,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C407">
@@ -5740,7 +5740,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C408">
@@ -5753,7 +5753,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C409">
@@ -5766,7 +5766,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C410">
@@ -5779,7 +5779,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C411">
@@ -5792,7 +5792,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C412">
@@ -5805,7 +5805,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C413">
@@ -5818,7 +5818,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>NAHUATZEN</t>
+          <t>Nahuatzen</t>
         </is>
       </c>
       <c r="C414">
@@ -5831,7 +5831,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C415">
@@ -5844,7 +5844,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C416">
@@ -5857,7 +5857,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>PAJACUARÁN</t>
+          <t>Pajacuarán</t>
         </is>
       </c>
       <c r="C417">
@@ -5870,7 +5870,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C418">
@@ -5883,7 +5883,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>PARÁCUARO</t>
+          <t>Parácuaro</t>
         </is>
       </c>
       <c r="C419">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>PERIBÁN</t>
+          <t>Peribán</t>
         </is>
       </c>
       <c r="C420">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C421">
@@ -5922,7 +5922,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>PURÉPERO</t>
+          <t>Purépero</t>
         </is>
       </c>
       <c r="C422">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C423">
@@ -5948,7 +5948,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C424">
@@ -5961,7 +5961,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C425">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>Salvador Escalante</t>
         </is>
       </c>
       <c r="C426">
@@ -5987,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C427">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>SENGUIO</t>
+          <t>Senguio</t>
         </is>
       </c>
       <c r="C428">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>SUSUPUATO</t>
+          <t>Susupuato</t>
         </is>
       </c>
       <c r="C429">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C430">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C431">
@@ -6052,7 +6052,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C432">
@@ -6065,7 +6065,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>TANHUATO</t>
+          <t>Tanhuato</t>
         </is>
       </c>
       <c r="C433">
@@ -6078,7 +6078,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>TARETAN</t>
+          <t>Taretan</t>
         </is>
       </c>
       <c r="C434">
@@ -6091,7 +6091,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>TARÍMBARO</t>
+          <t>Tarímbaro</t>
         </is>
       </c>
       <c r="C435">
@@ -6104,7 +6104,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>TINGUINDÍN</t>
+          <t>Tinguindín</t>
         </is>
       </c>
       <c r="C436">
@@ -6117,7 +6117,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C437">
@@ -6130,7 +6130,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>TOCUMBO</t>
+          <t>Tocumbo</t>
         </is>
       </c>
       <c r="C438">
@@ -6143,7 +6143,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C439">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C440">
@@ -6169,7 +6169,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C441">
@@ -6182,7 +6182,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C442">
@@ -6195,7 +6195,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>VILLAMAR</t>
+          <t>Villamar</t>
         </is>
       </c>
       <c r="C443">
@@ -6208,7 +6208,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C444">
@@ -6221,7 +6221,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C445">
@@ -6234,7 +6234,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C446">
@@ -6247,7 +6247,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C447">
@@ -6260,7 +6260,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C448">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C449">
@@ -6286,12 +6286,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>AXOCHIAPAN</t>
+          <t>Axochiapan</t>
         </is>
       </c>
       <c r="C450">
@@ -6304,7 +6304,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C451">
@@ -6317,7 +6317,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C452">
@@ -6330,7 +6330,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C453">
@@ -6343,7 +6343,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>JANTETELCO</t>
+          <t>Jantetelco</t>
         </is>
       </c>
       <c r="C454">
@@ -6356,7 +6356,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C455">
@@ -6369,7 +6369,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>JONACATEPEC</t>
+          <t>Jonacatepec</t>
         </is>
       </c>
       <c r="C456">
@@ -6382,7 +6382,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>MAZATEPEC</t>
+          <t>Mazatepec</t>
         </is>
       </c>
       <c r="C457">
@@ -6395,7 +6395,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>OCUITUCO</t>
+          <t>Ocuituco</t>
         </is>
       </c>
       <c r="C458">
@@ -6408,7 +6408,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C459">
@@ -6421,7 +6421,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C460">
@@ -6434,7 +6434,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>TETECALA</t>
+          <t>Tetecala</t>
         </is>
       </c>
       <c r="C461">
@@ -6447,7 +6447,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>TETELA DEL VOLCÁN</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C462">
@@ -6460,7 +6460,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C463">
@@ -6473,7 +6473,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>XOCHITEPEC</t>
+          <t>Xochitepec</t>
         </is>
       </c>
       <c r="C464">
@@ -6486,7 +6486,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C465">
@@ -6499,7 +6499,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C466">
@@ -6512,7 +6512,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C467">
@@ -6525,7 +6525,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C468">
@@ -6538,7 +6538,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>ZACUALPAN DE AMILPAS</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C469">
@@ -6551,7 +6551,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C470">
@@ -6564,12 +6564,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C471">
@@ -6582,7 +6582,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>ROSAMORADA</t>
+          <t>Rosamorada</t>
         </is>
       </c>
       <c r="C472">
@@ -6595,7 +6595,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>RUÍZ</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="C473">
@@ -6608,7 +6608,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C474">
@@ -6621,7 +6621,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C475">
@@ -6634,7 +6634,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C476">
@@ -6647,7 +6647,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C477">
@@ -6660,12 +6660,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C478">
@@ -6678,7 +6678,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C479">
@@ -6691,7 +6691,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C480">
@@ -6704,7 +6704,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C481">
@@ -6717,12 +6717,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ACATLÁN DE PÉREZ FIGUEROA</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C482">
@@ -6735,7 +6735,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>ASUNCIÓN CACALOTEPEC</t>
+          <t>Asunción Cacalotepec</t>
         </is>
       </c>
       <c r="C483">
@@ -6748,7 +6748,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>AYOTZINTEPEC</t>
+          <t>Ayotzintepec</t>
         </is>
       </c>
       <c r="C484">
@@ -6761,7 +6761,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C485">
@@ -6774,7 +6774,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>CHAHUITES</t>
+          <t>Chahuites</t>
         </is>
       </c>
       <c r="C486">
@@ -6787,7 +6787,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>COATECAS ALTAS</t>
+          <t>Coatecas Altas</t>
         </is>
       </c>
       <c r="C487">
@@ -6800,7 +6800,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>COICOYÁN DE LAS FLORES</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C488">
@@ -6813,7 +6813,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C489">
@@ -6826,7 +6826,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C490">
@@ -6839,7 +6839,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C491">
@@ -6852,7 +6852,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C492">
@@ -6865,7 +6865,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C493">
@@ -6878,7 +6878,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>LA COMPAÑÍA</t>
+          <t>La Compañía</t>
         </is>
       </c>
       <c r="C494">
@@ -6891,7 +6891,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>LA REFORMA</t>
+          <t>La Reforma</t>
         </is>
       </c>
       <c r="C495">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C496">
@@ -6917,7 +6917,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>MAGDALENA TEQUISISTLÁN</t>
+          <t>Magdalena Tequisistlán</t>
         </is>
       </c>
       <c r="C497">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>MARISCALA DE JUÁREZ</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C498">
@@ -6943,7 +6943,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C499">
@@ -6956,7 +6956,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>MESONES HIDALGO</t>
+          <t>Mesones Hidalgo</t>
         </is>
       </c>
       <c r="C500">
@@ -6969,7 +6969,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C501">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>MONJAS</t>
+          <t>Monjas</t>
         </is>
       </c>
       <c r="C502">
@@ -6995,7 +6995,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C503">
@@ -7008,7 +7008,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C504">
@@ -7021,7 +7021,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>PINOTEPA DE DON LUIS</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C505">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C506">
@@ -7047,7 +7047,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C507">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN ATENANGO</t>
+          <t>San Agustín Atenango</t>
         </is>
       </c>
       <c r="C508">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN CHAYUCO</t>
+          <t>San Agustín Chayuco</t>
         </is>
       </c>
       <c r="C509">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C510">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN YATARENI</t>
+          <t>San Agustín Yatareni</t>
         </is>
       </c>
       <c r="C511">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CABECERA NUEVA</t>
+          <t>San Andrés Cabecera Nueva</t>
         </is>
       </c>
       <c r="C512">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS HUAXPALTEPEC</t>
+          <t>San Andrés Huaxpaltepec</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS HUAYÁPAM</t>
+          <t>San Andrés Huayápam</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS PAXTLÁN</t>
+          <t>San Andrés Paxtlán</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TEPETLAPA</t>
+          <t>San Andrés Tepetlapa</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>SAN ANTONIO HUITEPEC</t>
+          <t>San Antonio Huitepec</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>SAN ANTONIO TEPETLAPA</t>
+          <t>San Antonio Tepetlapa</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>SAN BALTAZAR LOXICHA</t>
+          <t>San Baltazar Loxicha</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL AMATLÁN</t>
+          <t>San Cristóbal Amatlán</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>SAN DIONISIO DEL MAR</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>SAN FELIPE JALAPA DE DÍAZ</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEJALÁPAM</t>
+          <t>San Felipe Tejalápam</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL MAR</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO LOGUECHE</t>
+          <t>San Francisco Logueche</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>SAN GABRIEL MIXTEPEC</t>
+          <t>San Gabriel Mixtepec</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO COATLÁN</t>
+          <t>San Jerónimo Coatlán</t>
         </is>
       </c>
       <c r="C529">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL PROGRESO</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ESTANCIA GRANDE</t>
+          <t>San José Estancia Grande</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>SAN JOSÉ TENANGO</t>
+          <t>San José Tenango</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA LO DE SOTO</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TLACOATZINTEPEC</t>
+          <t>San Juan Bautista Tlacoatzintepec</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C537">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>SAN JUAN COTZOCÓN</t>
+          <t>San Juan Cotzocón</t>
         </is>
       </c>
       <c r="C538">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>SAN JUAN JUQUILA MIXES</t>
+          <t>San Juan Juquila Mixes</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHIGALLA</t>
+          <t>San Juan Lachigalla</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 26 -</t>
+          <t>San Juan Mixtepec -Dto. 26 -</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>SAN LUCAS OJITLÁN</t>
+          <t>San Lucas Ojitlán</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DEL PUERTO</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>SAN MIGUEL PANIXTLAHUACA</t>
+          <t>San Miguel Panixtlahuaca</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>SAN MIGUEL QUETZALTEPEC</t>
+          <t>San Miguel Quetzaltepec</t>
         </is>
       </c>
       <c r="C549">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TILQUIÁPAM</t>
+          <t>San Miguel Tilquiápam</t>
         </is>
       </c>
       <c r="C550">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TLACAMAMA</t>
+          <t>San Miguel Tlacamama</t>
         </is>
       </c>
       <c r="C551">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>SAN PABLO COATLÁN</t>
+          <t>San Pablo Coatlán</t>
         </is>
       </c>
       <c r="C552">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>SAN PEDRO AMUZGOS</t>
+          <t>San Pedro Amuzgos</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>SAN PEDRO ATOYAC</t>
+          <t>San Pedro Atoyac</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>SAN PEDRO COXCALTEPEC CÁNTAROS</t>
+          <t>San Pedro Coxcaltepec Cántaros</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>SAN PEDRO HUAMELULA</t>
+          <t>San Pedro Huamelula</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>SAN PEDRO JICAYÁN</t>
+          <t>San Pedro Jicayán</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO AYUTLA</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN IXCAPA</t>
+          <t>San Sebastián Ixcapa</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>SANTA CATARINA MECHOACÁN</t>
+          <t>Santa Catarina Mechoacán</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>SANTA CATARINA YOSONOTÚ</t>
+          <t>Santa Catarina Yosonotú</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ITUNDUJIA</t>
+          <t>Santa Cruz Itundujia</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>SANTA CRUZ XITLA</t>
+          <t>Santa Cruz Xitla</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>SANTA CRUZ XOXOCOTLÁN</t>
+          <t>Santa Cruz Xoxocotlán</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ZENZONTEPEC</t>
+          <t>Santa Cruz Zenzontepec</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>SANTA LUCÍA OCOTLÁN</t>
+          <t>Santa Lucía Ocotlán</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ALOTEPEC</t>
+          <t>Santa María Alotepec</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>SANTA MARÍA COLOTEPEC</t>
+          <t>Santa María Colotepec</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUAZOLOTITLÁN</t>
+          <t>Santa María Huazolotitlán</t>
         </is>
       </c>
       <c r="C573">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>SANTA MARÍA IPALAPA</t>
+          <t>Santa María Ipalapa</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JALAPA DEL MARQUÉS</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>SANTA MARÍA MIXTEQUILLA</t>
+          <t>Santa María Mixtequilla</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>SANTA MARÍA OZOLOTEPEC</t>
+          <t>Santa María Ozolotepec</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>SANTA MARÍA PETAPA</t>
+          <t>Santa María Petapa</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEMAXCALTEPEC</t>
+          <t>Santa María Temaxcaltepec</t>
         </is>
       </c>
       <c r="C580">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEPANTLALI</t>
+          <t>Santa María Tepantlali</t>
         </is>
       </c>
       <c r="C581">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>SANTA MARÍA YUCUHITI</t>
+          <t>Santa María Yucuhiti</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZACATEPEC</t>
+          <t>Santa María Zacatepec</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>SANTIAGO ATITLÁN</t>
+          <t>Santiago Atitlán</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>SANTIAGO IXTAYUTLA</t>
+          <t>Santiago Ixtayutla</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C587">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>SANTIAGO LLANO GRANDE</t>
+          <t>Santiago Llano Grande</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>SANTIAGO NILTEPEC</t>
+          <t>Santiago Niltepec</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>SANTIAGO TETEPEC</t>
+          <t>Santiago Tetepec</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ARMENTA</t>
+          <t>Santo Domingo Armenta</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO PETAPA</t>
+          <t>Santo Domingo Petapa</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TOMALTEPEC</t>
+          <t>Santo Domingo Tomaltepec</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>TAMAZULÁPAM DEL ESPÍRITU SANTO</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>TATALTEPEC DE VALDÉS</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>TEOTITLÁN DE FLORES MAGÓN</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>TEZOATLÁN DE SEGURA Y LUNA</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>TOTONTEPEC VILLA DE MORELOS</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>TRINIDAD ZAACHILA</t>
+          <t>Trinidad Zaachila</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>UNIÓN HIDALGO</t>
+          <t>Unión Hidalgo</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>VILLA DE CHILAPA DE DÍAZ</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,12 +8451,12 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C615">
@@ -8469,7 +8469,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C616">
@@ -8482,7 +8482,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C617">
@@ -8495,7 +8495,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>AHUAZOTEPEC</t>
+          <t>Ahuazotepec</t>
         </is>
       </c>
       <c r="C618">
@@ -8508,7 +8508,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>AHUEHUETITLA</t>
+          <t>Ahuehuetitla</t>
         </is>
       </c>
       <c r="C619">
@@ -8521,7 +8521,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C620">
@@ -8534,7 +8534,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>ALBINO ZERTUCHE</t>
+          <t>Albino Zertuche</t>
         </is>
       </c>
       <c r="C621">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>ALTEPEXI</t>
+          <t>Altepexi</t>
         </is>
       </c>
       <c r="C622">
@@ -8560,7 +8560,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C623">
@@ -8573,7 +8573,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C624">
@@ -8586,7 +8586,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C625">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>ATOYATEMPAN</t>
+          <t>Atoyatempan</t>
         </is>
       </c>
       <c r="C626">
@@ -8612,7 +8612,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>ATZALA</t>
+          <t>Atzala</t>
         </is>
       </c>
       <c r="C627">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>ATZITZIHUACÁN</t>
+          <t>Atzitzihuacán</t>
         </is>
       </c>
       <c r="C628">
@@ -8638,7 +8638,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>AXUTLA</t>
+          <t>Axutla</t>
         </is>
       </c>
       <c r="C629">
@@ -8651,7 +8651,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>CALPAN</t>
+          <t>Calpan</t>
         </is>
       </c>
       <c r="C630">
@@ -8664,7 +8664,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C631">
@@ -8677,7 +8677,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>CHALCHICOMULA DE SESMA</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C632">
@@ -8690,7 +8690,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>CHAPULCO</t>
+          <t>Chapulco</t>
         </is>
       </c>
       <c r="C633">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C634">
@@ -8716,7 +8716,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>Chiautzingo</t>
         </is>
       </c>
       <c r="C635">
@@ -8729,7 +8729,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C636">
@@ -8742,7 +8742,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>CHICONCUAUTLA</t>
+          <t>Chiconcuautla</t>
         </is>
       </c>
       <c r="C637">
@@ -8755,7 +8755,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C638">
@@ -8768,7 +8768,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C639">
@@ -8781,7 +8781,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>CHIGNAUTLA</t>
+          <t>Chignautla</t>
         </is>
       </c>
       <c r="C640">
@@ -8794,7 +8794,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>CHILA</t>
+          <t>Chila</t>
         </is>
       </c>
       <c r="C641">
@@ -8807,7 +8807,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>CHILA DE LA SAL</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C642">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>CHILCHOTLA</t>
+          <t>Chilchotla</t>
         </is>
       </c>
       <c r="C643">
@@ -8833,7 +8833,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>CHINANTLA</t>
+          <t>Chinantla</t>
         </is>
       </c>
       <c r="C644">
@@ -8846,7 +8846,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>COATZINGO</t>
+          <t>Coatzingo</t>
         </is>
       </c>
       <c r="C645">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C646">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>Coxcatlán</t>
         </is>
       </c>
       <c r="C647">
@@ -8885,7 +8885,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>CUAUTINCHÁN</t>
+          <t>Cuautinchán</t>
         </is>
       </c>
       <c r="C648">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
+          <t>Cuautlancingo</t>
         </is>
       </c>
       <c r="C649">
@@ -8911,7 +8911,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>CUAYUCA DE ANDRADE</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C650">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>CUETZALAN DEL PROGRESO</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C651">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>CUYOACO</t>
+          <t>Cuyoaco</t>
         </is>
       </c>
       <c r="C652">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>DOMINGO ARENAS</t>
+          <t>Domingo Arenas</t>
         </is>
       </c>
       <c r="C653">
@@ -8963,7 +8963,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>ELOXOCHITLÁN</t>
+          <t>Eloxochitlán</t>
         </is>
       </c>
       <c r="C654">
@@ -8976,7 +8976,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C655">
@@ -8989,7 +8989,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>GENERAL FELIPE ÁNGELES</t>
+          <t>General Felipe Ángeles</t>
         </is>
       </c>
       <c r="C656">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C657">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C658">
@@ -9028,7 +9028,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C659">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>HONEY</t>
+          <t>Honey</t>
         </is>
       </c>
       <c r="C660">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C661">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C662">
@@ -9080,7 +9080,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C663">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL CHICO</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C664">
@@ -9106,7 +9106,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL GRANDE</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C665">
@@ -9119,7 +9119,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C666">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>HUEYAPAN</t>
+          <t>Hueyapan</t>
         </is>
       </c>
       <c r="C667">
@@ -9145,7 +9145,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
+          <t>Hueytamalco</t>
         </is>
       </c>
       <c r="C668">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>HUITZILAN DE SERDÁN</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C669">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>HUITZILTEPEC</t>
+          <t>Huitziltepec</t>
         </is>
       </c>
       <c r="C670">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>IXCAMILPA DE GUERRERO</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C671">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>IXTACAMAXTITLÁN</t>
+          <t>Ixtacamaxtitlán</t>
         </is>
       </c>
       <c r="C672">
@@ -9210,7 +9210,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C673">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>JUAN C. BONILLA</t>
+          <t>Juan C. Bonilla</t>
         </is>
       </c>
       <c r="C674">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>LA MAGDALENA TLATLAUQUITEPEC</t>
+          <t>La Magdalena Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>LAFRAGUA</t>
+          <t>Lafragua</t>
         </is>
       </c>
       <c r="C676">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C677">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C678">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>MOLCAXAC</t>
+          <t>Molcaxac</t>
         </is>
       </c>
       <c r="C679">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>NAUZONTLA</t>
+          <t>Nauzontla</t>
         </is>
       </c>
       <c r="C680">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C681">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>OCOYUCAN</t>
+          <t>Ocoyucan</t>
         </is>
       </c>
       <c r="C682">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>OLINTLA</t>
+          <t>Olintla</t>
         </is>
       </c>
       <c r="C683">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C684">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C685">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C686">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>PIAXTLA</t>
+          <t>Piaxtla</t>
         </is>
       </c>
       <c r="C687">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C688">
@@ -9418,7 +9418,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C689">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>QUIMIXTLÁN</t>
+          <t>Quimixtlán</t>
         </is>
       </c>
       <c r="C690">
@@ -9444,7 +9444,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>RAFAEL LARA GRAJALES</t>
+          <t>Rafael Lara Grajales</t>
         </is>
       </c>
       <c r="C691">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C692">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>SAN ANTONIO CAÑADA</t>
+          <t>San Antonio Cañada</t>
         </is>
       </c>
       <c r="C693">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEOTLALCINGO</t>
+          <t>San Felipe Teotlalcingo</t>
         </is>
       </c>
       <c r="C694">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>SAN GABRIEL CHILAC</t>
+          <t>San Gabriel Chilac</t>
         </is>
       </c>
       <c r="C695">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>SAN GREGORIO ATZOMPA</t>
+          <t>San Gregorio Atzompa</t>
         </is>
       </c>
       <c r="C696">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO TECUANIPAN</t>
+          <t>San Jerónimo Tecuanipan</t>
         </is>
       </c>
       <c r="C697">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO XAYACATLÁN</t>
+          <t>San Jerónimo Xayacatlán</t>
         </is>
       </c>
       <c r="C698">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C699">
@@ -9561,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TOTOLTEPEC</t>
+          <t>San Martín Totoltepec</t>
         </is>
       </c>
       <c r="C700">
@@ -9574,7 +9574,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>SAN MIGUEL XOXTLA</t>
+          <t>San Miguel Xoxtla</t>
         </is>
       </c>
       <c r="C701">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS RANCHOS</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C702">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>SAN PABLO ANICANO</t>
+          <t>San Pablo Anicano</t>
         </is>
       </c>
       <c r="C703">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C704">
@@ -9626,7 +9626,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>SAN PEDRO YELOIXTLAHUACA</t>
+          <t>San Pedro Yeloixtlahuaca</t>
         </is>
       </c>
       <c r="C705">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL SECO</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C706">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C707">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>SAN SALVADOR HUIXCOLOTLA</t>
+          <t>San Salvador Huixcolotla</t>
         </is>
       </c>
       <c r="C708">
@@ -9678,7 +9678,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TLACOTEPEC</t>
+          <t>San Sebastián Tlacotepec</t>
         </is>
       </c>
       <c r="C709">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>SANTA INÉS AHUATEMPAN</t>
+          <t>Santa Inés Ahuatempan</t>
         </is>
       </c>
       <c r="C710">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>SANTA ISABEL CHOLULA</t>
+          <t>Santa Isabel Cholula</t>
         </is>
       </c>
       <c r="C711">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS HUEYOTLIPAN</t>
+          <t>Santo Tomás Hueyotlipan</t>
         </is>
       </c>
       <c r="C712">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>SOLTEPEC</t>
+          <t>Soltepec</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>TECALI DE HERRERA</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C714">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>TECOMATLÁN</t>
+          <t>Tecomatlán</t>
         </is>
       </c>
       <c r="C716">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C717">
@@ -9795,7 +9795,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C718">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>TENAMPULCO</t>
+          <t>Tenampulco</t>
         </is>
       </c>
       <c r="C719">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>TEOPANTLÁN</t>
+          <t>Teopantlán</t>
         </is>
       </c>
       <c r="C720">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C721">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>TEPANGO DE RODRÍGUEZ</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C722">
@@ -9860,7 +9860,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C723">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>TEPEOJUMA</t>
+          <t>Tepeojuma</t>
         </is>
       </c>
       <c r="C724">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>TEPETZINTLA</t>
+          <t>Tepetzintla</t>
         </is>
       </c>
       <c r="C725">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>TEPEXCO</t>
+          <t>Tepexco</t>
         </is>
       </c>
       <c r="C726">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C727">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO</t>
+          <t>Tepeyahualco</t>
         </is>
       </c>
       <c r="C728">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO DE CUAUHTÉMOC</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C729">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>TETELES DE AVILA CASTILLO</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C730">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C731">
@@ -9977,7 +9977,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>TIANGUISMANALCO</t>
+          <t>Tianguismanalco</t>
         </is>
       </c>
       <c r="C732">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>TILAPA</t>
+          <t>Tilapa</t>
         </is>
       </c>
       <c r="C733">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>TLACHICHUCA</t>
+          <t>Tlachichuca</t>
         </is>
       </c>
       <c r="C734">
@@ -10016,7 +10016,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C735">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>TLACUILOTEPEC</t>
+          <t>Tlacuilotepec</t>
         </is>
       </c>
       <c r="C736">
@@ -10042,7 +10042,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C737">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>TLALTENANGO</t>
+          <t>Tlaltenango</t>
         </is>
       </c>
       <c r="C738">
@@ -10068,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>TLANEPANTLA</t>
+          <t>Tlanepantla</t>
         </is>
       </c>
       <c r="C739">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C740">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>TLAPANALÁ</t>
+          <t>Tlapanalá</t>
         </is>
       </c>
       <c r="C741">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C742">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>TOCHIMILCO</t>
+          <t>Tochimilco</t>
         </is>
       </c>
       <c r="C743">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>TOCHTEPEC</t>
+          <t>Tochtepec</t>
         </is>
       </c>
       <c r="C744">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>TULCINGO</t>
+          <t>Tulcingo</t>
         </is>
       </c>
       <c r="C745">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>TUZAMAPAN DE GALEANA</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C746">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C747">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C748">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C749">
@@ -10211,7 +10211,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>XIUTETELCO</t>
+          <t>Xiutetelco</t>
         </is>
       </c>
       <c r="C750">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>XOCHIAPULCO</t>
+          <t>Xochiapulco</t>
         </is>
       </c>
       <c r="C751">
@@ -10237,7 +10237,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>XOCHILTEPEC</t>
+          <t>Xochiltepec</t>
         </is>
       </c>
       <c r="C752">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>XOCHITLÁN TODOS SANTOS</t>
+          <t>Xochitlán Todos Santos</t>
         </is>
       </c>
       <c r="C753">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>YEHUALTEPEC</t>
+          <t>Yehualtepec</t>
         </is>
       </c>
       <c r="C754">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>ZACAPALA</t>
+          <t>Zacapala</t>
         </is>
       </c>
       <c r="C755">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C757">
@@ -10315,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN</t>
+          <t>Zapotitlán</t>
         </is>
       </c>
       <c r="C758">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C759">
@@ -10341,7 +10341,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>ZAUTLA</t>
+          <t>Zautla</t>
         </is>
       </c>
       <c r="C760">
@@ -10354,7 +10354,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>ZOQUIAPAN</t>
+          <t>Zoquiapan</t>
         </is>
       </c>
       <c r="C761">
@@ -10367,7 +10367,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C762">
@@ -10380,12 +10380,12 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C763">
@@ -10398,7 +10398,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>EZEQUIEL MONTES</t>
+          <t>Ezequiel Montes</t>
         </is>
       </c>
       <c r="C764">
@@ -10411,7 +10411,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>HUIMILPAN</t>
+          <t>Huimilpan</t>
         </is>
       </c>
       <c r="C765">
@@ -10424,7 +10424,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C766">
@@ -10437,7 +10437,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C767">
@@ -10450,7 +10450,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>SAN JOAQUÍN</t>
+          <t>San Joaquín</t>
         </is>
       </c>
       <c r="C768">
@@ -10463,7 +10463,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C769">
@@ -10476,7 +10476,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
+          <t>Tequisquiapan</t>
         </is>
       </c>
       <c r="C770">
@@ -10489,7 +10489,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C771">
@@ -10502,12 +10502,12 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C772">
@@ -10520,7 +10520,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C773">
@@ -10533,7 +10533,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C774">
@@ -10546,12 +10546,12 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>AHUALULCO</t>
+          <t>Ahualulco</t>
         </is>
       </c>
       <c r="C775">
@@ -10564,7 +10564,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>ALAQUINES</t>
+          <t>Alaquines</t>
         </is>
       </c>
       <c r="C776">
@@ -10577,7 +10577,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>AQUISMÓN</t>
+          <t>Aquismón</t>
         </is>
       </c>
       <c r="C777">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>AXTLA DE TERRAZAS</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C778">
@@ -10603,7 +10603,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>CHARCAS</t>
+          <t>Charcas</t>
         </is>
       </c>
       <c r="C779">
@@ -10616,7 +10616,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C780">
@@ -10629,7 +10629,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C781">
@@ -10642,7 +10642,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>GUADALCÁZAR</t>
+          <t>Guadalcázar</t>
         </is>
       </c>
       <c r="C782">
@@ -10655,7 +10655,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C783">
@@ -10668,7 +10668,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C784">
@@ -10681,7 +10681,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C785">
@@ -10694,7 +10694,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C786">
@@ -10707,7 +10707,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C787">
@@ -10720,7 +10720,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>VILLA DE GUADALUPE</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C788">
@@ -10733,7 +10733,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C789">
@@ -10746,12 +10746,12 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C790">
@@ -10764,7 +10764,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>BADIRAGUATO</t>
+          <t>Badiraguato</t>
         </is>
       </c>
       <c r="C791">
@@ -10777,7 +10777,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C792">
@@ -10790,7 +10790,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>ELOTA</t>
+          <t>Elota</t>
         </is>
       </c>
       <c r="C793">
@@ -10803,7 +10803,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C794">
@@ -10816,7 +10816,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>MOCORITO</t>
+          <t>Mocorito</t>
         </is>
       </c>
       <c r="C795">
@@ -10829,7 +10829,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C796">
@@ -10842,7 +10842,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>San Ignacio</t>
         </is>
       </c>
       <c r="C797">
@@ -10855,7 +10855,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C798">
@@ -10868,7 +10868,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C799">
@@ -10881,12 +10881,12 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C800">
@@ -10899,7 +10899,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>ALTAR</t>
+          <t>Altar</t>
         </is>
       </c>
       <c r="C801">
@@ -10912,7 +10912,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C802">
@@ -10925,7 +10925,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C803">
@@ -10938,7 +10938,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C804">
@@ -10951,12 +10951,12 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>CENTLA</t>
+          <t>Centla</t>
         </is>
       </c>
       <c r="C805">
@@ -10969,7 +10969,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C806">
@@ -10982,7 +10982,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C807">
@@ -10995,7 +10995,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C808">
@@ -11008,7 +11008,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C809">
@@ -11021,7 +11021,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>JALAPA</t>
+          <t>Jalapa</t>
         </is>
       </c>
       <c r="C810">
@@ -11034,7 +11034,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>NACAJUCA</t>
+          <t>Nacajuca</t>
         </is>
       </c>
       <c r="C811">
@@ -11047,7 +11047,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>PARAÍSO</t>
+          <t>Paraíso</t>
         </is>
       </c>
       <c r="C812">
@@ -11060,7 +11060,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C813">
@@ -11073,7 +11073,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C814">
@@ -11086,12 +11086,12 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C815">
@@ -11104,7 +11104,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C816">
@@ -11117,7 +11117,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C817">
@@ -11130,7 +11130,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C818">
@@ -11143,7 +11143,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C819">
@@ -11156,7 +11156,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C820">
@@ -11169,7 +11169,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C821">
@@ -11182,7 +11182,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C822">
@@ -11195,7 +11195,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C823">
@@ -11208,7 +11208,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="C824">
@@ -11221,7 +11221,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C825">
@@ -11234,7 +11234,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>VALLE HERMOSO</t>
+          <t>Valle Hermoso</t>
         </is>
       </c>
       <c r="C826">
@@ -11247,7 +11247,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C827">
@@ -11260,7 +11260,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C828">
@@ -11273,12 +11273,12 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C829">
@@ -11291,7 +11291,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>ATLTZAYANCA</t>
+          <t>Atltzayanca</t>
         </is>
       </c>
       <c r="C830">
@@ -11304,7 +11304,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C831">
@@ -11317,7 +11317,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C832">
@@ -11330,7 +11330,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>CONTLA DE JUAN CUAMATZI</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C833">
@@ -11343,7 +11343,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>ESPAÑITA</t>
+          <t>Españita</t>
         </is>
       </c>
       <c r="C834">
@@ -11356,7 +11356,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C835">
@@ -11369,7 +11369,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>HUEYOTLIPAN</t>
+          <t>Hueyotlipan</t>
         </is>
       </c>
       <c r="C836">
@@ -11382,7 +11382,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>IXTACUIXTLA DE MARIANO MATAMOROS</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C837">
@@ -11395,7 +11395,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>NANACAMILPA DE MARIANO ARISTA</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C838">
@@ -11408,7 +11408,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>NATÍVITAS</t>
+          <t>Natívitas</t>
         </is>
       </c>
       <c r="C839">
@@ -11421,7 +11421,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C840">
@@ -11434,7 +11434,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>PAPALOTLA DE XICOHTÉNCATL</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C841">
@@ -11447,7 +11447,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>SAN DAMIÁN TEXÓLOC</t>
+          <t>San Damián Texóloc</t>
         </is>
       </c>
       <c r="C842">
@@ -11460,7 +11460,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TETLANOHCAN</t>
+          <t>San Francisco Tetlanohcan</t>
         </is>
       </c>
       <c r="C843">
@@ -11473,7 +11473,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>SAN PABLO DEL MONTE</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C844">
@@ -11486,7 +11486,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C845">
@@ -11499,7 +11499,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>TEOLOCHOLCO</t>
+          <t>Teolocholco</t>
         </is>
       </c>
       <c r="C846">
@@ -11512,7 +11512,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>TEPETITLA DE LARDIZÁBAL</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C847">
@@ -11525,7 +11525,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>TEPEYANCO</t>
+          <t>Tepeyanco</t>
         </is>
       </c>
       <c r="C848">
@@ -11538,7 +11538,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>TERRENATE</t>
+          <t>Terrenate</t>
         </is>
       </c>
       <c r="C849">
@@ -11551,7 +11551,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>TETLATLAHUCA</t>
+          <t>Tetlatlahuca</t>
         </is>
       </c>
       <c r="C850">
@@ -11564,7 +11564,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C851">
@@ -11577,7 +11577,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>XICOHTZINCO</t>
+          <t>Xicohtzinco</t>
         </is>
       </c>
       <c r="C852">
@@ -11590,7 +11590,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>ZACATELCO</t>
+          <t>Zacatelco</t>
         </is>
       </c>
       <c r="C853">
@@ -11603,7 +11603,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C854">
@@ -11616,12 +11616,12 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C855">
@@ -11634,7 +11634,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>ACULA</t>
+          <t>Acula</t>
         </is>
       </c>
       <c r="C856">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>ACULTZINGO</t>
+          <t>Acultzingo</t>
         </is>
       </c>
       <c r="C857">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>AGUA DULCE</t>
+          <t>Agua Dulce</t>
         </is>
       </c>
       <c r="C858">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C859">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C860">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C861">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C862">
@@ -11725,7 +11725,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C863">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>AYAHUALULCO</t>
+          <t>Ayahualulco</t>
         </is>
       </c>
       <c r="C864">
@@ -11751,7 +11751,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>BOCA DEL RÍO</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C865">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C866">
@@ -11777,7 +11777,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>CAMERINO Z. MENDOZA</t>
+          <t>Camerino Z. Mendoza</t>
         </is>
       </c>
       <c r="C867">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C868">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>CHACALTIANGUIS</t>
+          <t>Chacaltianguis</t>
         </is>
       </c>
       <c r="C869">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>CHICONTEPEC</t>
+          <t>Chicontepec</t>
         </is>
       </c>
       <c r="C870">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>CHINAMECA</t>
+          <t>Chinameca</t>
         </is>
       </c>
       <c r="C871">
@@ -11842,7 +11842,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>CHOCAMÁN</t>
+          <t>Chocamán</t>
         </is>
       </c>
       <c r="C872">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>COAHUITLÁN</t>
+          <t>Coahuitlán</t>
         </is>
       </c>
       <c r="C873">
@@ -11868,7 +11868,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C874">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C875">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>COMAPA</t>
+          <t>Comapa</t>
         </is>
       </c>
       <c r="C876">
@@ -11907,7 +11907,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C877">
@@ -11920,7 +11920,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C878">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C879">
@@ -11946,7 +11946,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C880">
@@ -11959,7 +11959,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C881">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>FILOMENO MATA</t>
+          <t>Filomeno Mata</t>
         </is>
       </c>
       <c r="C882">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>GUTIÉRREZ ZAMORA</t>
+          <t>Gutiérrez Zamora</t>
         </is>
       </c>
       <c r="C883">
@@ -11998,7 +11998,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C884">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C885">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C886">
@@ -12037,7 +12037,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C887">
@@ -12050,7 +12050,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>ILAMATLÁN</t>
+          <t>Ilamatlán</t>
         </is>
       </c>
       <c r="C888">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C889">
@@ -12076,7 +12076,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C890">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL CAFÉ</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C891">
@@ -12102,7 +12102,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>JALACINGO</t>
+          <t>Jalacingo</t>
         </is>
       </c>
       <c r="C892">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>JAMAPA</t>
+          <t>Jamapa</t>
         </is>
       </c>
       <c r="C893">
@@ -12128,7 +12128,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C894">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C895">
@@ -12154,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C896">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C897">
@@ -12180,7 +12180,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C898">
@@ -12193,7 +12193,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>LAS VIGAS DE RAMÍREZ</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C899">
@@ -12206,7 +12206,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>LERDO DE TEJADA</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C900">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>MANLIO FABIO ALTAMIRANO</t>
+          <t>Manlio Fabio Altamirano</t>
         </is>
       </c>
       <c r="C901">
@@ -12232,7 +12232,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>MARIANO ESCOBEDO</t>
+          <t>Mariano Escobedo</t>
         </is>
       </c>
       <c r="C902">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C903">
@@ -12258,7 +12258,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>MEDELLÍN</t>
+          <t>Medellín</t>
         </is>
       </c>
       <c r="C904">
@@ -12271,7 +12271,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C905">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C906">
@@ -12297,7 +12297,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>MIXTLA DE ALTAMIRANO</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C907">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>NARANJOS AMATLÁN</t>
+          <t>Naranjos Amatlán</t>
         </is>
       </c>
       <c r="C908">
@@ -12323,7 +12323,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>NAUTLA</t>
+          <t>Nautla</t>
         </is>
       </c>
       <c r="C909">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C910">
@@ -12349,7 +12349,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C911">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>OZULUAMA DE MASCAREÑAS</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C912">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C913">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C914">
@@ -12401,7 +12401,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>PEROTE</t>
+          <t>Perote</t>
         </is>
       </c>
       <c r="C915">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>PLATÓN SÁNCHEZ</t>
+          <t>Platón Sánchez</t>
         </is>
       </c>
       <c r="C916">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C917">
@@ -12440,7 +12440,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C918">
@@ -12453,7 +12453,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C919">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>RAFAEL LUCIO</t>
+          <t>Rafael Lucio</t>
         </is>
       </c>
       <c r="C920">
@@ -12479,7 +12479,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C921">
@@ -12492,7 +12492,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C922">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C923">
@@ -12518,7 +12518,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C924">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C925">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C926">
@@ -12557,7 +12557,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>TATAHUICAPAN DE JUÁREZ</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C927">
@@ -12570,7 +12570,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>TATATILA</t>
+          <t>Tatatila</t>
         </is>
       </c>
       <c r="C928">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>TENOCHTITLÁN</t>
+          <t>Tenochtitlán</t>
         </is>
       </c>
       <c r="C929">
@@ -12596,7 +12596,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>TEPATLAXCO</t>
+          <t>Tepatlaxco</t>
         </is>
       </c>
       <c r="C930">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>TEXCATEPEC</t>
+          <t>Texcatepec</t>
         </is>
       </c>
       <c r="C931">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>TEXISTEPEC</t>
+          <t>Texistepec</t>
         </is>
       </c>
       <c r="C932">
@@ -12635,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C933">
@@ -12648,7 +12648,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C934">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C935">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>TLACHICHILCO</t>
+          <t>Tlachichilco</t>
         </is>
       </c>
       <c r="C936">
@@ -12687,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>TLACOJALPAN</t>
+          <t>Tlacojalpan</t>
         </is>
       </c>
       <c r="C937">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>TLACOLULAN</t>
+          <t>Tlacolulan</t>
         </is>
       </c>
       <c r="C938">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C939">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>TLALTETELA</t>
+          <t>Tlaltetela</t>
         </is>
       </c>
       <c r="C940">
@@ -12739,7 +12739,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C941">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>TLAQUILPA</t>
+          <t>Tlaquilpa</t>
         </is>
       </c>
       <c r="C942">
@@ -12765,7 +12765,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C943">
@@ -12778,7 +12778,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>TRES VALLES</t>
+          <t>Tres Valles</t>
         </is>
       </c>
       <c r="C944">
@@ -12791,7 +12791,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C945">
@@ -12804,7 +12804,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>URSULO GALVÁN</t>
+          <t>Ursulo Galván</t>
         </is>
       </c>
       <c r="C946">
@@ -12817,7 +12817,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C947">
@@ -12830,7 +12830,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>VEGA DE ALATORRE</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C948">
@@ -12843,7 +12843,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C949">
@@ -12856,7 +12856,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>VILLA ALDAMA</t>
+          <t>Villa Aldama</t>
         </is>
       </c>
       <c r="C950">
@@ -12869,7 +12869,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C951">
@@ -12882,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C952">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>YECUATLA</t>
+          <t>Yecuatla</t>
         </is>
       </c>
       <c r="C953">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>ZENTLA</t>
+          <t>Zentla</t>
         </is>
       </c>
       <c r="C954">
@@ -12921,7 +12921,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C955">
@@ -12934,7 +12934,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>ZONTECOMATLÁN DE LÓPEZ Y FUENTES</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C956">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C957">
@@ -12960,7 +12960,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C958">
@@ -12973,12 +12973,12 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>HOCABÁ</t>
+          <t>Hocabá</t>
         </is>
       </c>
       <c r="C959">
@@ -12991,7 +12991,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>MUNA</t>
+          <t>Muna</t>
         </is>
       </c>
       <c r="C960">
@@ -13004,7 +13004,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>PROGRESO</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="C961">
@@ -13017,7 +13017,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>TAHMEK</t>
+          <t>Tahmek</t>
         </is>
       </c>
       <c r="C962">
@@ -13030,7 +13030,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C963">
@@ -13043,12 +13043,12 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C964">
@@ -13061,7 +13061,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C965">
@@ -13074,7 +13074,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C966">
@@ -13087,7 +13087,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C967">
@@ -13100,7 +13100,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>MAZAPIL</t>
+          <t>Mazapil</t>
         </is>
       </c>
       <c r="C968">
@@ -13113,7 +13113,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C969">
@@ -13126,7 +13126,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C970">
@@ -13139,7 +13139,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C971">
@@ -13152,7 +13152,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C972">
@@ -13165,7 +13165,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>TEPETONGO</t>
+          <t>Tepetongo</t>
         </is>
       </c>
       <c r="C973">
@@ -13178,7 +13178,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C974">
@@ -13191,7 +13191,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C975">
@@ -13204,7 +13204,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C976">
@@ -13217,7 +13217,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C977">
@@ -13230,7 +13230,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C978">
@@ -13243,7 +13243,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C979">
@@ -13256,7 +13256,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C980">
@@ -13264,41 +13264,6 @@
       </c>
       <c r="D980">
         <v>1</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>
